--- a/data/trans_dic/P22$notiene-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P22$notiene-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +740,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,57</t>
+          <t>0,0; 0,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,7 +755,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,79</t>
+          <t>0,0; 0,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -779,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,38</t>
+          <t>0,0; 0,33</t>
         </is>
       </c>
     </row>
@@ -864,7 +865,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,28</t>
+          <t>0,11; 1,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,27 +875,27 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,69</t>
+          <t>0,0; 1,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,59</t>
+          <t>0,0; 0,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,63</t>
+          <t>0,0; 0,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,59</t>
+          <t>0,0; 0,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,64</t>
+          <t>0,0; 0,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +905,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,76</t>
+          <t>0,09; 0,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,35</t>
+          <t>0,0; 0,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,53</t>
+          <t>0,0; 0,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1009,7 +1010,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,13</t>
+          <t>0,0; 1,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1034,32 +1035,32 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,89</t>
+          <t>0,0; 0,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,39</t>
+          <t>0,0; 0,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,67</t>
+          <t>0,0; 0,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,53</t>
+          <t>0,0; 0,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,42</t>
+          <t>0,0; 0,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,23</t>
+          <t>0,0; 0,19</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1150,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,84</t>
+          <t>0,0; 0,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,23</t>
+          <t>0,16; 1,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,6</t>
+          <t>0,0; 0,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,12 +1180,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,68</t>
+          <t>0,06; 0,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,28</t>
+          <t>0,0; 0,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,64</t>
+          <t>0,06; 0,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,46</t>
+          <t>0,07; 0,45</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1285,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,49</t>
+          <t>0,05; 0,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1299,12 +1300,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,23</t>
+          <t>0,02; 0,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,21</t>
+          <t>0,0; 0,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1314,17 +1315,17 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,27</t>
+          <t>0,02; 0,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,32</t>
+          <t>0,08; 0,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,26</t>
+          <t>0,05; 0,26</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1334,12 +1335,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,26</t>
+          <t>0,06; 0,27</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,21</t>
+          <t>0,07; 0,23</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no tiene Seguro Sanitario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2001</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1984</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4380</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1897</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2056</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4628</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1047</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1924</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2030</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4269</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4311</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1764</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1196</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2334</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5514</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1196</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2975</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3349</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1034; 12142</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2086</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10546</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5214</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5974</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5999</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7259</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>605; 5494</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1655; 14434</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6726</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9835</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1196; 8534</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1645</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1645</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2444</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8216</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8519</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2090</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1999</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1884</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2114</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5408</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3572</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8219</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7406</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5456</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3032</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5004</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2997</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5004</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3986</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1818</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6439</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1506; 12956</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4760</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4663</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2012</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2088</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>638; 8439</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4649</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6348</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1218; 13008</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1494; 9063</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3712</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6767</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2868</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1196</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3144</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5995</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>8090</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4907</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>9912</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8863</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1652; 14932</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1210; 9909</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2268; 15345</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>766; 8713</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7585</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6591</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>849; 8843</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2888; 12462</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3377; 17536</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1234; 12286</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4332; 18989</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4762; 16226</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>